--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B51" s="65">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
